--- a/Hardware Log.xlsx
+++ b/Hardware Log.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/gv19838_bristol_ac_uk/Documents/PhD/Hydrophone/UNDT-Hydrophone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC10480E295A5EAC5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEEB49E7-8FF8-4F27-8C9E-85C4742BA61A}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC10480E295A5EAC5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B53021-8B1C-4A6F-AB80-C55087101731}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,39 +36,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>Part No.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date Last Checked</t>
+  </si>
   <si>
     <t>FP158-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensor </t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Date Last Checked</t>
-  </si>
-  <si>
-    <t>Probably Broken</t>
-  </si>
-  <si>
     <t>FP152-18T</t>
   </si>
   <si>
     <t>BROKEN</t>
   </si>
   <si>
+    <t>FP152-07</t>
+  </si>
+  <si>
     <t>FP156-22</t>
   </si>
   <si>
     <t>FP158-01</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>FP152-07</t>
+    <t>TFS-5649-14</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>TFS-5649-04</t>
+  </si>
+  <si>
+    <t>TFS-5649-08</t>
+  </si>
+  <si>
+    <t>TFS-5649-09</t>
+  </si>
+  <si>
+    <t>TFS-5649-10</t>
+  </si>
+  <si>
+    <t>FOHS71</t>
+  </si>
+  <si>
+    <t>Serviced</t>
+  </si>
+  <si>
+    <t>Broken</t>
+  </si>
+  <si>
+    <t>EasyGet</t>
   </si>
 </sst>
 </file>
@@ -134,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,61 +427,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
-        <v>45504</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="3">
-        <v>45504</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
-        <v>45504</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -461,7 +489,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45524</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -469,7 +500,87 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45581</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware Log.xlsx
+++ b/Hardware Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/gv19838_bristol_ac_uk/Documents/PhD/Hydrophone/UNDT-Hydrophone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC10480E295A5EAC5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B53021-8B1C-4A6F-AB80-C55087101731}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_F25DC773A252ABDACC10480E295A5EAC5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5167E73D-CC6D-44FD-A250-513A0C97699C}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-220" yWindow="10690" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Part No.</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>EasyGet</t>
+  </si>
+  <si>
+    <t>Suspicious</t>
   </si>
 </sst>
 </file>
@@ -158,10 +161,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,7 +429,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>45524</v>
